--- a/tests/testthat/fixtures/ex3/tables/dif_poly_booklet.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_poly_booklet.xlsx
@@ -487,16 +487,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>11409</v>
+        <v>11521</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11431</v>
+        <v>11543</v>
       </c>
       <c r="G2" t="n">
-        <v>11493</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="3">
@@ -510,16 +510,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>11402</v>
+        <v>11513</v>
       </c>
       <c r="E3" t="n">
         <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>11440</v>
+        <v>11551</v>
       </c>
       <c r="G3" t="n">
-        <v>11547</v>
+        <v>11658</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -635,16 +635,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.085</v>
+        <v>-0.11</v>
       </c>
       <c r="C2" t="n">
         <v>0.087</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.071</v>
+        <v>-0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.955</v>
+        <v>1.599</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -664,16 +664,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03</v>
+        <v>0.076</v>
       </c>
       <c r="C3" t="n">
         <v>0.065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.025</v>
+        <v>0.062</v>
       </c>
       <c r="E3" t="n">
-        <v>0.213</v>
+        <v>1.367</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -693,16 +693,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.104</v>
+        <v>-0.026</v>
       </c>
       <c r="C4" t="n">
         <v>0.077</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.087</v>
+        <v>-0.021</v>
       </c>
       <c r="E4" t="n">
-        <v>1.824</v>
+        <v>0.114</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -722,16 +722,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.168</v>
+        <v>-0.179</v>
       </c>
       <c r="C5" t="n">
         <v>0.05</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.14</v>
+        <v>-0.146</v>
       </c>
       <c r="E5" t="n">
-        <v>11.29</v>
+        <v>12.816</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -751,16 +751,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.326</v>
+        <v>-0.24</v>
       </c>
       <c r="C6" t="n">
         <v>0.142</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.272</v>
+        <v>-0.195</v>
       </c>
       <c r="E6" t="n">
-        <v>5.271</v>
+        <v>2.857</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.123</v>
+        <v>-0.146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.103</v>
+        <v>-0.119</v>
       </c>
       <c r="E2" t="n">
-        <v>1.827</v>
+        <v>2.632</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -852,16 +852,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004</v>
+        <v>0.016</v>
       </c>
       <c r="C3" t="n">
         <v>0.065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004</v>
+        <v>0.061</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -881,16 +881,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006</v>
+        <v>0.028</v>
       </c>
       <c r="C4" t="n">
         <v>0.081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005</v>
+        <v>0.119</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -910,7 +910,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.09</v>
+        <v>-0.092</v>
       </c>
       <c r="C5" t="n">
         <v>0.053</v>
@@ -919,7 +919,7 @@
         <v>-0.075</v>
       </c>
       <c r="E5" t="n">
-        <v>2.884</v>
+        <v>3.013</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -939,16 +939,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.202</v>
+        <v>-0.195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.169</v>
+        <v>-0.159</v>
       </c>
       <c r="E6" t="n">
-        <v>1.838</v>
+        <v>1.76</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -1011,16 +1011,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.038</v>
+        <v>-0.036</v>
       </c>
       <c r="C2" t="n">
         <v>0.083</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.032</v>
+        <v>-0.029</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21</v>
+        <v>0.188</v>
       </c>
       <c r="F2" t="n">
         <v>117.283</v>
@@ -1040,16 +1040,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.027</v>
+        <v>-0.06</v>
       </c>
       <c r="C3" t="n">
         <v>0.065</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.023</v>
+        <v>-0.049</v>
       </c>
       <c r="E3" t="n">
-        <v>0.173</v>
+        <v>0.852</v>
       </c>
       <c r="F3" t="n">
         <v>117.283</v>
@@ -1069,16 +1069,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11</v>
+        <v>0.054</v>
       </c>
       <c r="C4" t="n">
         <v>0.072</v>
       </c>
       <c r="D4" t="n">
-        <v>0.092</v>
+        <v>0.044</v>
       </c>
       <c r="E4" t="n">
-        <v>2.334</v>
+        <v>0.562</v>
       </c>
       <c r="F4" t="n">
         <v>117.283</v>
@@ -1098,16 +1098,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.078</v>
+        <v>0.087</v>
       </c>
       <c r="C5" t="n">
         <v>0.047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.065</v>
+        <v>0.071</v>
       </c>
       <c r="E5" t="n">
-        <v>2.754</v>
+        <v>3.426</v>
       </c>
       <c r="F5" t="n">
         <v>117.283</v>
@@ -1127,16 +1127,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.123</v>
+        <v>0.045</v>
       </c>
       <c r="C6" t="n">
         <v>0.136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.103</v>
+        <v>0.037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.818</v>
+        <v>0.109</v>
       </c>
       <c r="F6" t="n">
         <v>117.283</v>
@@ -1181,10 +1181,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.431</v>
+        <v>-0.403</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.36</v>
+        <v>-0.328</v>
       </c>
     </row>
     <row r="3">
@@ -1192,10 +1192,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.352</v>
+        <v>-0.333</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.295</v>
+        <v>-0.271</v>
       </c>
     </row>
   </sheetData>
@@ -1228,10 +1228,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.865</v>
+        <v>-0.85</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.722</v>
+        <v>-0.693</v>
       </c>
     </row>
     <row r="3">
@@ -1239,10 +1239,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.824</v>
+        <v>-0.814</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.689</v>
+        <v>-0.664</v>
       </c>
     </row>
   </sheetData>
@@ -1275,10 +1275,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.434</v>
+        <v>-0.448</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.362</v>
+        <v>-0.365</v>
       </c>
     </row>
     <row r="3">
@@ -1286,10 +1286,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.472</v>
+        <v>-0.481</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.395</v>
+        <v>-0.392</v>
       </c>
     </row>
   </sheetData>
